--- a/Data/ISPU 2022.xlsx
+++ b/Data/ISPU 2022.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skyne\Documents\Sem 5\Pemodelan generator data\RBL\ISPU\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skyne\Documents\Sem 5\Pemodelan generator data\RBL\ISPU\ISPU 2020-2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B3FCF4-8963-49E1-9640-351A78774927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCCD1CF2-698B-4B7A-A0A0-3B1DEE2B97EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8A10D5A7-A4A4-480B-AC0F-3C9EB0DD4C8C}"/>
   </bookViews>
@@ -29,9 +29,6 @@
   </si>
   <si>
     <t>pm_10</t>
-  </si>
-  <si>
-    <t>pm_duakomalima</t>
   </si>
   <si>
     <t>so2</t>
@@ -89,6 +86,9 @@
   </si>
   <si>
     <t>BAIK</t>
+  </si>
+  <si>
+    <t>pm_2.5</t>
   </si>
 </sst>
 </file>
@@ -978,8 +978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72F4B323-8687-4B19-832B-58127DCC0BC3}">
   <dimension ref="A1:L365"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="O31" sqref="O31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1009,31 +1009,31 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
@@ -1065,13 +1065,13 @@
         <v>64</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
@@ -1103,13 +1103,13 @@
         <v>129</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
@@ -1141,13 +1141,13 @@
         <v>110</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
@@ -1179,13 +1179,13 @@
         <v>78</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
@@ -1217,13 +1217,13 @@
         <v>126</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
@@ -1255,13 +1255,13 @@
         <v>137</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
@@ -1293,13 +1293,13 @@
         <v>109</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
@@ -1331,13 +1331,13 @@
         <v>148</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
@@ -1369,13 +1369,13 @@
         <v>84</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
@@ -1407,13 +1407,13 @@
         <v>82</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
@@ -1445,13 +1445,13 @@
         <v>85</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
@@ -1483,13 +1483,13 @@
         <v>130</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
@@ -1521,13 +1521,13 @@
         <v>119</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
@@ -1559,13 +1559,13 @@
         <v>98</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
@@ -1597,13 +1597,13 @@
         <v>119</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
@@ -1635,13 +1635,13 @@
         <v>116</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
@@ -1673,13 +1673,13 @@
         <v>79</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
@@ -1711,13 +1711,13 @@
         <v>101</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
@@ -1749,13 +1749,13 @@
         <v>117</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
@@ -1787,13 +1787,13 @@
         <v>105</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
@@ -1825,13 +1825,13 @@
         <v>89</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
@@ -1863,13 +1863,13 @@
         <v>108</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L23" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
@@ -1901,13 +1901,13 @@
         <v>181</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L24" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
@@ -1939,13 +1939,13 @@
         <v>84</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
@@ -1977,13 +1977,13 @@
         <v>93</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
@@ -2015,13 +2015,13 @@
         <v>77</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
@@ -2053,13 +2053,13 @@
         <v>97</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
@@ -2091,13 +2091,13 @@
         <v>107</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
@@ -2129,13 +2129,13 @@
         <v>116</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
@@ -2167,13 +2167,13 @@
         <v>103</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K31" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L31" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="L31" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
@@ -2205,13 +2205,13 @@
         <v>97</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
@@ -2243,13 +2243,13 @@
         <v>119</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
@@ -2281,13 +2281,13 @@
         <v>101</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
@@ -2319,13 +2319,13 @@
         <v>82</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
@@ -2357,13 +2357,13 @@
         <v>99</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
@@ -2395,13 +2395,13 @@
         <v>141</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.35">
@@ -2433,13 +2433,13 @@
         <v>113</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
@@ -2471,13 +2471,13 @@
         <v>130</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
@@ -2509,13 +2509,13 @@
         <v>103</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
@@ -2547,13 +2547,13 @@
         <v>100</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.35">
@@ -2585,13 +2585,13 @@
         <v>92</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.35">
@@ -2623,13 +2623,13 @@
         <v>86</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.35">
@@ -2661,13 +2661,13 @@
         <v>79</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.35">
@@ -2699,13 +2699,13 @@
         <v>94</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.35">
@@ -2737,13 +2737,13 @@
         <v>83</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.35">
@@ -2775,13 +2775,13 @@
         <v>97</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.35">
@@ -2813,13 +2813,13 @@
         <v>90</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.35">
@@ -2851,13 +2851,13 @@
         <v>112</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.35">
@@ -2889,13 +2889,13 @@
         <v>110</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.35">
@@ -2927,13 +2927,13 @@
         <v>113</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.35">
@@ -2965,13 +2965,13 @@
         <v>113</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.35">
@@ -3003,13 +3003,13 @@
         <v>103</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.35">
@@ -3041,13 +3041,13 @@
         <v>100</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.35">
@@ -3079,13 +3079,13 @@
         <v>117</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.35">
@@ -3117,13 +3117,13 @@
         <v>113</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.35">
@@ -3155,13 +3155,13 @@
         <v>81</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.35">
@@ -3193,13 +3193,13 @@
         <v>79</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.35">
@@ -3231,13 +3231,13 @@
         <v>88</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.35">
@@ -3269,13 +3269,13 @@
         <v>72</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.35">
@@ -3307,13 +3307,13 @@
         <v>91</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.35">
@@ -3345,13 +3345,13 @@
         <v>87</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.35">
@@ -3383,13 +3383,13 @@
         <v>79</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.35">
@@ -3421,13 +3421,13 @@
         <v>86</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.35">
@@ -3459,13 +3459,13 @@
         <v>105</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L65" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.35">
@@ -3497,13 +3497,13 @@
         <v>76</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L66" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.35">
@@ -3535,13 +3535,13 @@
         <v>102</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.35">
@@ -3573,13 +3573,13 @@
         <v>108</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.35">
@@ -3611,13 +3611,13 @@
         <v>51</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L69" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.35">
@@ -3649,13 +3649,13 @@
         <v>53</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L70" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.35">
@@ -3687,13 +3687,13 @@
         <v>57</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.35">
@@ -3725,13 +3725,13 @@
         <v>66</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L72" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.35">
@@ -3763,13 +3763,13 @@
         <v>82</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.35">
@@ -3801,13 +3801,13 @@
         <v>67</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L74" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.35">
@@ -3839,13 +3839,13 @@
         <v>88</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L75" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.35">
@@ -3877,13 +3877,13 @@
         <v>92</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L76" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.35">
@@ -3915,13 +3915,13 @@
         <v>79</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L77" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.35">
@@ -3953,13 +3953,13 @@
         <v>85</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L78" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.35">
@@ -3991,13 +3991,13 @@
         <v>93</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L79" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.35">
@@ -4029,13 +4029,13 @@
         <v>78</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L80" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.35">
@@ -4067,13 +4067,13 @@
         <v>94</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L81" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.35">
@@ -4105,13 +4105,13 @@
         <v>91</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L82" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.35">
@@ -4143,13 +4143,13 @@
         <v>97</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L83" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.35">
@@ -4181,13 +4181,13 @@
         <v>126</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K84" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L84" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.35">
@@ -4219,13 +4219,13 @@
         <v>74</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K85" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L85" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.35">
@@ -4257,13 +4257,13 @@
         <v>95</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K86" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L86" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.35">
@@ -4295,13 +4295,13 @@
         <v>61</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K87" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L87" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.35">
@@ -4333,13 +4333,13 @@
         <v>66</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L88" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.35">
@@ -4371,13 +4371,13 @@
         <v>89</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K89" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L89" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.35">
@@ -4409,13 +4409,13 @@
         <v>68</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K90" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L90" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.35">
@@ -4447,13 +4447,13 @@
         <v>98</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K91" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L91" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.35">
@@ -4485,13 +4485,13 @@
         <v>76</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K92" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L92" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.35">
@@ -4523,13 +4523,13 @@
         <v>79</v>
       </c>
       <c r="J93" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K93" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L93" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.35">
@@ -4561,13 +4561,13 @@
         <v>128</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K94" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L94" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.35">
@@ -4599,13 +4599,13 @@
         <v>66</v>
       </c>
       <c r="J95" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K95" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L95" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.35">
@@ -4637,13 +4637,13 @@
         <v>77</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K96" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L96" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.35">
@@ -4675,13 +4675,13 @@
         <v>86</v>
       </c>
       <c r="J97" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L97" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.35">
@@ -4713,13 +4713,13 @@
         <v>87</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K98" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L98" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.35">
@@ -4751,13 +4751,13 @@
         <v>78</v>
       </c>
       <c r="J99" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K99" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L99" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.35">
@@ -4789,13 +4789,13 @@
         <v>70</v>
       </c>
       <c r="J100" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K100" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L100" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.35">
@@ -4827,13 +4827,13 @@
         <v>144</v>
       </c>
       <c r="J101" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K101" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L101" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.35">
@@ -4865,13 +4865,13 @@
         <v>89</v>
       </c>
       <c r="J102" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K102" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L102" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.35">
@@ -4903,13 +4903,13 @@
         <v>95</v>
       </c>
       <c r="J103" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K103" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L103" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.35">
@@ -4941,13 +4941,13 @@
         <v>81</v>
       </c>
       <c r="J104" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K104" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L104" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.35">
@@ -4979,13 +4979,13 @@
         <v>90</v>
       </c>
       <c r="J105" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K105" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L105" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.35">
@@ -5017,13 +5017,13 @@
         <v>104</v>
       </c>
       <c r="J106" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K106" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L106" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.35">
@@ -5055,13 +5055,13 @@
         <v>101</v>
       </c>
       <c r="J107" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K107" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L107" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.35">
@@ -5093,13 +5093,13 @@
         <v>96</v>
       </c>
       <c r="J108" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K108" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L108" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.35">
@@ -5131,13 +5131,13 @@
         <v>76</v>
       </c>
       <c r="J109" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K109" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L109" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.35">
@@ -5169,13 +5169,13 @@
         <v>71</v>
       </c>
       <c r="J110" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K110" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L110" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.35">
@@ -5207,13 +5207,13 @@
         <v>61</v>
       </c>
       <c r="J111" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K111" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L111" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.35">
@@ -5245,13 +5245,13 @@
         <v>63</v>
       </c>
       <c r="J112" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K112" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L112" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.35">
@@ -5283,13 +5283,13 @@
         <v>85</v>
       </c>
       <c r="J113" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K113" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L113" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.35">
@@ -5321,13 +5321,13 @@
         <v>95</v>
       </c>
       <c r="J114" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K114" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L114" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.35">
@@ -5359,13 +5359,13 @@
         <v>80</v>
       </c>
       <c r="J115" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K115" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L115" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.35">
@@ -5397,13 +5397,13 @@
         <v>72</v>
       </c>
       <c r="J116" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K116" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L116" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.35">
@@ -5435,13 +5435,13 @@
         <v>53</v>
       </c>
       <c r="J117" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K117" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L117" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.35">
@@ -5473,13 +5473,13 @@
         <v>77</v>
       </c>
       <c r="J118" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K118" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L118" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.35">
@@ -5511,13 +5511,13 @@
         <v>51</v>
       </c>
       <c r="J119" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K119" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L119" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.35">
@@ -5549,13 +5549,13 @@
         <v>62</v>
       </c>
       <c r="J120" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K120" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L120" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.35">
@@ -5587,13 +5587,13 @@
         <v>72</v>
       </c>
       <c r="J121" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K121" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L121" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.35">
@@ -5625,13 +5625,13 @@
         <v>71</v>
       </c>
       <c r="J122" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K122" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L122" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.35">
@@ -5663,13 +5663,13 @@
         <v>66</v>
       </c>
       <c r="J123" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K123" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L123" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.35">
@@ -5701,13 +5701,13 @@
         <v>77</v>
       </c>
       <c r="J124" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K124" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L124" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.35">
@@ -5739,13 +5739,13 @@
         <v>131</v>
       </c>
       <c r="J125" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K125" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L125" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.35">
@@ -5777,13 +5777,13 @@
         <v>112</v>
       </c>
       <c r="J126" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K126" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L126" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.35">
@@ -5815,13 +5815,13 @@
         <v>83</v>
       </c>
       <c r="J127" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K127" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L127" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.35">
@@ -5853,13 +5853,13 @@
         <v>73</v>
       </c>
       <c r="J128" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K128" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L128" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.35">
@@ -5891,13 +5891,13 @@
         <v>97</v>
       </c>
       <c r="J129" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K129" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L129" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.35">
@@ -5929,13 +5929,13 @@
         <v>93</v>
       </c>
       <c r="J130" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K130" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L130" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.35">
@@ -5967,13 +5967,13 @@
         <v>94</v>
       </c>
       <c r="J131" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K131" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L131" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.35">
@@ -6005,13 +6005,13 @@
         <v>100</v>
       </c>
       <c r="J132" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K132" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L132" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.35">
@@ -6043,13 +6043,13 @@
         <v>95</v>
       </c>
       <c r="J133" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K133" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L133" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.35">
@@ -6081,13 +6081,13 @@
         <v>117</v>
       </c>
       <c r="J134" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K134" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L134" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.35">
@@ -6119,13 +6119,13 @@
         <v>107</v>
       </c>
       <c r="J135" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K135" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L135" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.35">
@@ -6157,13 +6157,13 @@
         <v>88</v>
       </c>
       <c r="J136" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K136" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L136" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.35">
@@ -6195,13 +6195,13 @@
         <v>85</v>
       </c>
       <c r="J137" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K137" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L137" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.35">
@@ -6233,13 +6233,13 @@
         <v>94</v>
       </c>
       <c r="J138" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K138" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L138" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.35">
@@ -6271,13 +6271,13 @@
         <v>72</v>
       </c>
       <c r="J139" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K139" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L139" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.35">
@@ -6309,13 +6309,13 @@
         <v>72</v>
       </c>
       <c r="J140" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K140" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L140" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.35">
@@ -6347,13 +6347,13 @@
         <v>62</v>
       </c>
       <c r="J141" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K141" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L141" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.35">
@@ -6385,13 +6385,13 @@
         <v>71</v>
       </c>
       <c r="J142" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K142" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L142" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.35">
@@ -6423,13 +6423,13 @@
         <v>71</v>
       </c>
       <c r="J143" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K143" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L143" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.35">
@@ -6461,13 +6461,13 @@
         <v>60</v>
       </c>
       <c r="J144" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K144" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L144" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.35">
@@ -6499,13 +6499,13 @@
         <v>83</v>
       </c>
       <c r="J145" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K145" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L145" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.35">
@@ -6537,13 +6537,13 @@
         <v>98</v>
       </c>
       <c r="J146" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K146" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L146" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.35">
@@ -6575,13 +6575,13 @@
         <v>96</v>
       </c>
       <c r="J147" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K147" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L147" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.35">
@@ -6613,13 +6613,13 @@
         <v>99</v>
       </c>
       <c r="J148" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K148" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L148" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.35">
@@ -6651,13 +6651,13 @@
         <v>154</v>
       </c>
       <c r="J149" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K149" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L149" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.35">
@@ -6689,13 +6689,13 @@
         <v>86</v>
       </c>
       <c r="J150" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K150" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L150" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.35">
@@ -6727,13 +6727,13 @@
         <v>65</v>
       </c>
       <c r="J151" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K151" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L151" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.35">
@@ -6765,13 +6765,13 @@
         <v>57</v>
       </c>
       <c r="J152" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K152" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L152" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.35">
@@ -6803,13 +6803,13 @@
         <v>92</v>
       </c>
       <c r="J153" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K153" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L153" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.35">
@@ -6841,13 +6841,13 @@
         <v>57</v>
       </c>
       <c r="J154" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K154" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L154" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.35">
@@ -6879,13 +6879,13 @@
         <v>62</v>
       </c>
       <c r="J155" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K155" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L155" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.35">
@@ -6917,13 +6917,13 @@
         <v>58</v>
       </c>
       <c r="J156" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K156" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L156" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.35">
@@ -6955,13 +6955,13 @@
         <v>66</v>
       </c>
       <c r="J157" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K157" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L157" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.35">
@@ -6993,13 +6993,13 @@
         <v>57</v>
       </c>
       <c r="J158" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K158" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L158" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.35">
@@ -7031,13 +7031,13 @@
         <v>60</v>
       </c>
       <c r="J159" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K159" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L159" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.35">
@@ -7069,13 +7069,13 @@
         <v>87</v>
       </c>
       <c r="J160" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K160" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L160" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.35">
@@ -7107,13 +7107,13 @@
         <v>82</v>
       </c>
       <c r="J161" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K161" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L161" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.35">
@@ -7145,13 +7145,13 @@
         <v>77</v>
       </c>
       <c r="J162" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K162" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L162" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.35">
@@ -7183,13 +7183,13 @@
         <v>113</v>
       </c>
       <c r="J163" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K163" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L163" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.35">
@@ -7221,13 +7221,13 @@
         <v>117</v>
       </c>
       <c r="J164" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K164" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L164" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.35">
@@ -7259,13 +7259,13 @@
         <v>165</v>
       </c>
       <c r="J165" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K165" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L165" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.35">
@@ -7297,13 +7297,13 @@
         <v>102</v>
       </c>
       <c r="J166" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K166" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L166" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.35">
@@ -7335,13 +7335,13 @@
         <v>80</v>
       </c>
       <c r="J167" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K167" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L167" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.35">
@@ -7373,13 +7373,13 @@
         <v>70</v>
       </c>
       <c r="J168" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K168" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L168" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.35">
@@ -7411,13 +7411,13 @@
         <v>89</v>
       </c>
       <c r="J169" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K169" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L169" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.35">
@@ -7449,13 +7449,13 @@
         <v>50</v>
       </c>
       <c r="J170" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K170" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L170" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.35">
@@ -7487,13 +7487,13 @@
         <v>51</v>
       </c>
       <c r="J171" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K171" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L171" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.35">
@@ -7525,13 +7525,13 @@
         <v>60</v>
       </c>
       <c r="J172" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K172" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L172" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.35">
@@ -7563,13 +7563,13 @@
         <v>59</v>
       </c>
       <c r="J173" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K173" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L173" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.35">
@@ -7601,13 +7601,13 @@
         <v>71</v>
       </c>
       <c r="J174" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K174" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L174" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.35">
@@ -7639,13 +7639,13 @@
         <v>87</v>
       </c>
       <c r="J175" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K175" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L175" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.35">
@@ -7677,13 +7677,13 @@
         <v>92</v>
       </c>
       <c r="J176" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K176" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L176" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.35">
@@ -7715,13 +7715,13 @@
         <v>86</v>
       </c>
       <c r="J177" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K177" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L177" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.35">
@@ -7753,13 +7753,13 @@
         <v>115</v>
       </c>
       <c r="J178" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K178" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L178" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.35">
@@ -7791,13 +7791,13 @@
         <v>108</v>
       </c>
       <c r="J179" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K179" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L179" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.35">
@@ -7829,13 +7829,13 @@
         <v>118</v>
       </c>
       <c r="J180" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K180" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L180" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.35">
@@ -7867,13 +7867,13 @@
         <v>86</v>
       </c>
       <c r="J181" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K181" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L181" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.35">
@@ -7905,13 +7905,13 @@
         <v>110</v>
       </c>
       <c r="J182" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K182" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L182" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.35">
@@ -7943,13 +7943,13 @@
         <v>119</v>
       </c>
       <c r="J183" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K183" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L183" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.35">
@@ -7981,13 +7981,13 @@
         <v>109</v>
       </c>
       <c r="J184" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K184" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L184" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.35">
@@ -8019,13 +8019,13 @@
         <v>98</v>
       </c>
       <c r="J185" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K185" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L185" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.35">
@@ -8057,13 +8057,13 @@
         <v>68</v>
       </c>
       <c r="J186" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K186" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L186" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.35">
@@ -8095,13 +8095,13 @@
         <v>95</v>
       </c>
       <c r="J187" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K187" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L187" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.35">
@@ -8133,13 +8133,13 @@
         <v>49</v>
       </c>
       <c r="J188" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K188" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L188" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.35">
@@ -8171,13 +8171,13 @@
         <v>85</v>
       </c>
       <c r="J189" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K189" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L189" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.35">
@@ -8209,13 +8209,13 @@
         <v>119</v>
       </c>
       <c r="J190" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K190" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L190" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.35">
@@ -8247,13 +8247,13 @@
         <v>129</v>
       </c>
       <c r="J191" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K191" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L191" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.35">
@@ -8285,13 +8285,13 @@
         <v>120</v>
       </c>
       <c r="J192" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K192" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L192" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.35">
@@ -8323,13 +8323,13 @@
         <v>84</v>
       </c>
       <c r="J193" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K193" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L193" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.35">
@@ -8361,13 +8361,13 @@
         <v>75</v>
       </c>
       <c r="J194" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K194" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L194" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.35">
@@ -8399,13 +8399,13 @@
         <v>57</v>
       </c>
       <c r="J195" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K195" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L195" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.35">
@@ -8437,13 +8437,13 @@
         <v>58</v>
       </c>
       <c r="J196" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K196" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L196" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.35">
@@ -8475,13 +8475,13 @@
         <v>74</v>
       </c>
       <c r="J197" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K197" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L197" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.35">
@@ -8513,13 +8513,13 @@
         <v>73</v>
       </c>
       <c r="J198" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K198" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L198" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.35">
@@ -8551,13 +8551,13 @@
         <v>73</v>
       </c>
       <c r="J199" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K199" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L199" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.35">
@@ -8589,13 +8589,13 @@
         <v>57</v>
       </c>
       <c r="J200" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K200" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L200" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.35">
@@ -8627,13 +8627,13 @@
         <v>68</v>
       </c>
       <c r="J201" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K201" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L201" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.35">
@@ -8665,13 +8665,13 @@
         <v>69</v>
       </c>
       <c r="J202" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K202" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L202" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.35">
@@ -8703,13 +8703,13 @@
         <v>67</v>
       </c>
       <c r="J203" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K203" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L203" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.35">
@@ -8741,13 +8741,13 @@
         <v>93</v>
       </c>
       <c r="J204" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K204" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L204" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.35">
@@ -8779,13 +8779,13 @@
         <v>102</v>
       </c>
       <c r="J205" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K205" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L205" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.35">
@@ -8817,13 +8817,13 @@
         <v>69</v>
       </c>
       <c r="J206" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K206" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L206" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.35">
@@ -8855,13 +8855,13 @@
         <v>63</v>
       </c>
       <c r="J207" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K207" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L207" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.35">
@@ -8893,13 +8893,13 @@
         <v>63</v>
       </c>
       <c r="J208" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K208" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L208" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.35">
@@ -8931,13 +8931,13 @@
         <v>59</v>
       </c>
       <c r="J209" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K209" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L209" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.35">
@@ -8969,13 +8969,13 @@
         <v>101</v>
       </c>
       <c r="J210" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K210" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L210" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.35">
@@ -9007,13 +9007,13 @@
         <v>83</v>
       </c>
       <c r="J211" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K211" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L211" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.35">
@@ -9045,13 +9045,13 @@
         <v>91</v>
       </c>
       <c r="J212" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K212" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L212" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.35">
@@ -9083,13 +9083,13 @@
         <v>82</v>
       </c>
       <c r="J213" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K213" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L213" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.35">
@@ -9121,13 +9121,13 @@
         <v>118</v>
       </c>
       <c r="J214" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K214" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L214" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.35">
@@ -9159,13 +9159,13 @@
         <v>114</v>
       </c>
       <c r="J215" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K215" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L215" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.35">
@@ -9197,13 +9197,13 @@
         <v>108</v>
       </c>
       <c r="J216" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K216" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L216" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.35">
@@ -9235,13 +9235,13 @@
         <v>128</v>
       </c>
       <c r="J217" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K217" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L217" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.35">
@@ -9273,13 +9273,13 @@
         <v>56</v>
       </c>
       <c r="J218" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K218" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L218" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.35">
@@ -9311,13 +9311,13 @@
         <v>105</v>
       </c>
       <c r="J219" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K219" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L219" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.35">
@@ -9349,13 +9349,13 @@
         <v>84</v>
       </c>
       <c r="J220" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K220" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L220" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.35">
@@ -9387,13 +9387,13 @@
         <v>135</v>
       </c>
       <c r="J221" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K221" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L221" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.35">
@@ -9425,13 +9425,13 @@
         <v>109</v>
       </c>
       <c r="J222" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K222" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L222" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.35">
@@ -9463,13 +9463,13 @@
         <v>67</v>
       </c>
       <c r="J223" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K223" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L223" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.35">
@@ -9501,13 +9501,13 @@
         <v>58</v>
       </c>
       <c r="J224" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K224" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L224" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.35">
@@ -9539,13 +9539,13 @@
         <v>62</v>
       </c>
       <c r="J225" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K225" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L225" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.35">
@@ -9577,13 +9577,13 @@
         <v>72</v>
       </c>
       <c r="J226" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K226" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L226" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.35">
@@ -9615,13 +9615,13 @@
         <v>99</v>
       </c>
       <c r="J227" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K227" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L227" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.35">
@@ -9653,13 +9653,13 @@
         <v>101</v>
       </c>
       <c r="J228" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K228" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L228" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.35">
@@ -9691,13 +9691,13 @@
         <v>50</v>
       </c>
       <c r="J229" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K229" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L229" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.35">
@@ -9729,13 +9729,13 @@
         <v>160</v>
       </c>
       <c r="J230" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K230" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L230" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.35">
@@ -9767,13 +9767,13 @@
         <v>119</v>
       </c>
       <c r="J231" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K231" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L231" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.35">
@@ -9805,13 +9805,13 @@
         <v>117</v>
       </c>
       <c r="J232" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K232" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L232" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.35">
@@ -9843,13 +9843,13 @@
         <v>62</v>
       </c>
       <c r="J233" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K233" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L233" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.35">
@@ -9881,13 +9881,13 @@
         <v>126</v>
       </c>
       <c r="J234" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K234" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L234" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.35">
@@ -9919,13 +9919,13 @@
         <v>92</v>
       </c>
       <c r="J235" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K235" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L235" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.35">
@@ -9957,13 +9957,13 @@
         <v>122</v>
       </c>
       <c r="J236" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K236" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L236" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.35">
@@ -9995,13 +9995,13 @@
         <v>65</v>
       </c>
       <c r="J237" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K237" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L237" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.35">
@@ -10033,13 +10033,13 @@
         <v>61</v>
       </c>
       <c r="J238" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K238" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L238" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.35">
@@ -10071,13 +10071,13 @@
         <v>63</v>
       </c>
       <c r="J239" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K239" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L239" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.35">
@@ -10109,13 +10109,13 @@
         <v>53</v>
       </c>
       <c r="J240" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K240" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L240" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.35">
@@ -10147,13 +10147,13 @@
         <v>71</v>
       </c>
       <c r="J241" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K241" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L241" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.35">
@@ -10185,13 +10185,13 @@
         <v>73</v>
       </c>
       <c r="J242" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K242" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L242" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.35">
@@ -10223,13 +10223,13 @@
         <v>111</v>
       </c>
       <c r="J243" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K243" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L243" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.35">
@@ -10261,13 +10261,13 @@
         <v>141</v>
       </c>
       <c r="J244" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K244" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L244" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.35">
@@ -10299,13 +10299,13 @@
         <v>76</v>
       </c>
       <c r="J245" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K245" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L245" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.35">
@@ -10337,13 +10337,13 @@
         <v>97</v>
       </c>
       <c r="J246" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K246" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L246" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.35">
@@ -10375,13 +10375,13 @@
         <v>109</v>
       </c>
       <c r="J247" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K247" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L247" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.35">
@@ -10413,13 +10413,13 @@
         <v>65</v>
       </c>
       <c r="J248" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K248" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L248" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.35">
@@ -10451,13 +10451,13 @@
         <v>59</v>
       </c>
       <c r="J249" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K249" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L249" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.35">
@@ -10489,13 +10489,13 @@
         <v>107</v>
       </c>
       <c r="J250" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K250" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L250" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.35">
@@ -10527,13 +10527,13 @@
         <v>112</v>
       </c>
       <c r="J251" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K251" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L251" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.35">
@@ -10565,13 +10565,13 @@
         <v>75</v>
       </c>
       <c r="J252" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K252" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L252" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.35">
@@ -10603,13 +10603,13 @@
         <v>102</v>
       </c>
       <c r="J253" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K253" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L253" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.35">
@@ -10641,13 +10641,13 @@
         <v>53</v>
       </c>
       <c r="J254" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K254" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L254" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.35">
@@ -10679,13 +10679,13 @@
         <v>90</v>
       </c>
       <c r="J255" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K255" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L255" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.35">
@@ -10717,13 +10717,13 @@
         <v>68</v>
       </c>
       <c r="J256" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K256" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L256" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.35">
@@ -10755,13 +10755,13 @@
         <v>53</v>
       </c>
       <c r="J257" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K257" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L257" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.35">
@@ -10793,13 +10793,13 @@
         <v>55</v>
       </c>
       <c r="J258" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K258" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L258" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.35">
@@ -10831,13 +10831,13 @@
         <v>51</v>
       </c>
       <c r="J259" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K259" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L259" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.35">
@@ -10869,13 +10869,13 @@
         <v>114</v>
       </c>
       <c r="J260" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K260" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L260" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.35">
@@ -10907,13 +10907,13 @@
         <v>53</v>
       </c>
       <c r="J261" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K261" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L261" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.35">
@@ -10945,13 +10945,13 @@
         <v>60</v>
       </c>
       <c r="J262" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K262" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L262" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.35">
@@ -10983,13 +10983,13 @@
         <v>128</v>
       </c>
       <c r="J263" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K263" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L263" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.35">
@@ -11021,13 +11021,13 @@
         <v>100</v>
       </c>
       <c r="J264" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K264" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L264" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.35">
@@ -11059,13 +11059,13 @@
         <v>126</v>
       </c>
       <c r="J265" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K265" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L265" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.35">
@@ -11097,13 +11097,13 @@
         <v>101</v>
       </c>
       <c r="J266" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K266" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L266" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.35">
@@ -11135,13 +11135,13 @@
         <v>65</v>
       </c>
       <c r="J267" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K267" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L267" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.35">
@@ -11173,13 +11173,13 @@
         <v>85</v>
       </c>
       <c r="J268" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K268" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L268" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.35">
@@ -11211,13 +11211,13 @@
         <v>81</v>
       </c>
       <c r="J269" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K269" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L269" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.35">
@@ -11249,13 +11249,13 @@
         <v>86</v>
       </c>
       <c r="J270" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K270" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L270" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.35">
@@ -11287,13 +11287,13 @@
         <v>95</v>
       </c>
       <c r="J271" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K271" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L271" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.35">
@@ -11325,13 +11325,13 @@
         <v>98</v>
       </c>
       <c r="J272" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K272" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L272" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.35">
@@ -11363,13 +11363,13 @@
         <v>92</v>
       </c>
       <c r="J273" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K273" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L273" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.35">
@@ -11401,13 +11401,13 @@
         <v>73</v>
       </c>
       <c r="J274" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K274" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L274" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.35">
@@ -11439,13 +11439,13 @@
         <v>102</v>
       </c>
       <c r="J275" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K275" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L275" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.35">
@@ -11477,13 +11477,13 @@
         <v>85</v>
       </c>
       <c r="J276" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K276" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L276" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.35">
@@ -11515,13 +11515,13 @@
         <v>58</v>
       </c>
       <c r="J277" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K277" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L277" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.35">
@@ -11553,13 +11553,13 @@
         <v>90</v>
       </c>
       <c r="J278" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K278" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L278" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.35">
@@ -11591,13 +11591,13 @@
         <v>77</v>
       </c>
       <c r="J279" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K279" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L279" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.35">
@@ -11629,13 +11629,13 @@
         <v>117</v>
       </c>
       <c r="J280" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K280" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L280" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.35">
@@ -11667,13 +11667,13 @@
         <v>79</v>
       </c>
       <c r="J281" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K281" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L281" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.35">
@@ -11705,13 +11705,13 @@
         <v>82</v>
       </c>
       <c r="J282" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K282" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L282" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.35">
@@ -11743,13 +11743,13 @@
         <v>102</v>
       </c>
       <c r="J283" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K283" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L283" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.35">
@@ -11781,13 +11781,13 @@
         <v>148</v>
       </c>
       <c r="J284" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K284" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L284" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.35">
@@ -11819,13 +11819,13 @@
         <v>119</v>
       </c>
       <c r="J285" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K285" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L285" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.35">
@@ -11857,13 +11857,13 @@
         <v>102</v>
       </c>
       <c r="J286" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K286" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L286" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.35">
@@ -11895,13 +11895,13 @@
         <v>111</v>
       </c>
       <c r="J287" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K287" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L287" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="L287" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.35">
@@ -11933,13 +11933,13 @@
         <v>118</v>
       </c>
       <c r="J288" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K288" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L288" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="L288" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="289" spans="1:12" x14ac:dyDescent="0.35">
@@ -11971,13 +11971,13 @@
         <v>107</v>
       </c>
       <c r="J289" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K289" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L289" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="290" spans="1:12" x14ac:dyDescent="0.35">
@@ -12009,13 +12009,13 @@
         <v>98</v>
       </c>
       <c r="J290" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K290" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L290" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.35">
@@ -12047,13 +12047,13 @@
         <v>164</v>
       </c>
       <c r="J291" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K291" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L291" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.35">
@@ -12085,13 +12085,13 @@
         <v>76</v>
       </c>
       <c r="J292" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K292" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L292" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.35">
@@ -12123,13 +12123,13 @@
         <v>81</v>
       </c>
       <c r="J293" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K293" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L293" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.35">
@@ -12161,13 +12161,13 @@
         <v>90</v>
       </c>
       <c r="J294" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K294" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L294" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="295" spans="1:12" x14ac:dyDescent="0.35">
@@ -12199,13 +12199,13 @@
         <v>87</v>
       </c>
       <c r="J295" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K295" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L295" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="296" spans="1:12" x14ac:dyDescent="0.35">
@@ -12237,13 +12237,13 @@
         <v>92</v>
       </c>
       <c r="J296" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K296" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L296" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="297" spans="1:12" x14ac:dyDescent="0.35">
@@ -12275,13 +12275,13 @@
         <v>71</v>
       </c>
       <c r="J297" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K297" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L297" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="298" spans="1:12" x14ac:dyDescent="0.35">
@@ -12313,13 +12313,13 @@
         <v>74</v>
       </c>
       <c r="J298" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K298" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L298" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="299" spans="1:12" x14ac:dyDescent="0.35">
@@ -12351,13 +12351,13 @@
         <v>99</v>
       </c>
       <c r="J299" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K299" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L299" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="300" spans="1:12" x14ac:dyDescent="0.35">
@@ -12389,13 +12389,13 @@
         <v>126</v>
       </c>
       <c r="J300" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K300" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L300" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="301" spans="1:12" x14ac:dyDescent="0.35">
@@ -12428,7 +12428,7 @@
       </c>
       <c r="J301" s="2"/>
       <c r="K301" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L301" s="3">
         <v>0</v>
@@ -12463,13 +12463,13 @@
         <v>89</v>
       </c>
       <c r="J302" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K302" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L302" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="303" spans="1:12" x14ac:dyDescent="0.35">
@@ -12501,13 +12501,13 @@
         <v>107</v>
       </c>
       <c r="J303" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K303" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L303" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="304" spans="1:12" x14ac:dyDescent="0.35">
@@ -12539,13 +12539,13 @@
         <v>105</v>
       </c>
       <c r="J304" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K304" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L304" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="305" spans="1:12" x14ac:dyDescent="0.35">
@@ -12577,13 +12577,13 @@
         <v>146</v>
       </c>
       <c r="J305" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K305" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L305" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="306" spans="1:12" x14ac:dyDescent="0.35">
@@ -12615,13 +12615,13 @@
         <v>93</v>
       </c>
       <c r="J306" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K306" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L306" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="307" spans="1:12" x14ac:dyDescent="0.35">
@@ -12653,13 +12653,13 @@
         <v>121</v>
       </c>
       <c r="J307" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K307" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L307" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="308" spans="1:12" x14ac:dyDescent="0.35">
@@ -12691,13 +12691,13 @@
         <v>98</v>
       </c>
       <c r="J308" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K308" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L308" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="309" spans="1:12" x14ac:dyDescent="0.35">
@@ -12729,13 +12729,13 @@
         <v>123</v>
       </c>
       <c r="J309" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K309" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L309" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="310" spans="1:12" x14ac:dyDescent="0.35">
@@ -12767,13 +12767,13 @@
         <v>110</v>
       </c>
       <c r="J310" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K310" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L310" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="311" spans="1:12" x14ac:dyDescent="0.35">
@@ -12805,13 +12805,13 @@
         <v>82</v>
       </c>
       <c r="J311" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K311" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L311" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="312" spans="1:12" x14ac:dyDescent="0.35">
@@ -12843,13 +12843,13 @@
         <v>128</v>
       </c>
       <c r="J312" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K312" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L312" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="313" spans="1:12" x14ac:dyDescent="0.35">
@@ -12881,13 +12881,13 @@
         <v>136</v>
       </c>
       <c r="J313" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K313" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L313" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="314" spans="1:12" x14ac:dyDescent="0.35">
@@ -12919,13 +12919,13 @@
         <v>99</v>
       </c>
       <c r="J314" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K314" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L314" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="315" spans="1:12" x14ac:dyDescent="0.35">
@@ -12957,13 +12957,13 @@
         <v>106</v>
       </c>
       <c r="J315" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K315" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L315" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="316" spans="1:12" x14ac:dyDescent="0.35">
@@ -12995,13 +12995,13 @@
         <v>131</v>
       </c>
       <c r="J316" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K316" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L316" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="317" spans="1:12" x14ac:dyDescent="0.35">
@@ -13033,13 +13033,13 @@
         <v>123</v>
       </c>
       <c r="J317" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K317" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L317" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="318" spans="1:12" x14ac:dyDescent="0.35">
@@ -13071,13 +13071,13 @@
         <v>119</v>
       </c>
       <c r="J318" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K318" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L318" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="319" spans="1:12" x14ac:dyDescent="0.35">
@@ -13109,13 +13109,13 @@
         <v>123</v>
       </c>
       <c r="J319" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K319" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L319" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="320" spans="1:12" x14ac:dyDescent="0.35">
@@ -13147,13 +13147,13 @@
         <v>114</v>
       </c>
       <c r="J320" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K320" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L320" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="321" spans="1:12" x14ac:dyDescent="0.35">
@@ -13185,13 +13185,13 @@
         <v>131</v>
       </c>
       <c r="J321" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K321" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L321" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="322" spans="1:12" x14ac:dyDescent="0.35">
@@ -13223,13 +13223,13 @@
         <v>118</v>
       </c>
       <c r="J322" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K322" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L322" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="323" spans="1:12" x14ac:dyDescent="0.35">
@@ -13261,13 +13261,13 @@
         <v>117</v>
       </c>
       <c r="J323" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K323" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L323" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="324" spans="1:12" x14ac:dyDescent="0.35">
@@ -13299,13 +13299,13 @@
         <v>130</v>
       </c>
       <c r="J324" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K324" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L324" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="325" spans="1:12" x14ac:dyDescent="0.35">
@@ -13337,13 +13337,13 @@
         <v>146</v>
       </c>
       <c r="J325" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K325" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L325" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="326" spans="1:12" x14ac:dyDescent="0.35">
@@ -13375,13 +13375,13 @@
         <v>141</v>
       </c>
       <c r="J326" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K326" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L326" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="327" spans="1:12" x14ac:dyDescent="0.35">
@@ -13413,13 +13413,13 @@
         <v>112</v>
       </c>
       <c r="J327" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K327" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L327" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="328" spans="1:12" x14ac:dyDescent="0.35">
@@ -13451,13 +13451,13 @@
         <v>97</v>
       </c>
       <c r="J328" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K328" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L328" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="329" spans="1:12" x14ac:dyDescent="0.35">
@@ -13489,13 +13489,13 @@
         <v>112</v>
       </c>
       <c r="J329" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K329" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L329" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="330" spans="1:12" x14ac:dyDescent="0.35">
@@ -13527,13 +13527,13 @@
         <v>92</v>
       </c>
       <c r="J330" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K330" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L330" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="331" spans="1:12" x14ac:dyDescent="0.35">
@@ -13565,13 +13565,13 @@
         <v>82</v>
       </c>
       <c r="J331" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K331" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L331" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="332" spans="1:12" x14ac:dyDescent="0.35">
@@ -13603,13 +13603,13 @@
         <v>97</v>
       </c>
       <c r="J332" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K332" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L332" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="333" spans="1:12" x14ac:dyDescent="0.35">
@@ -13641,13 +13641,13 @@
         <v>110</v>
       </c>
       <c r="J333" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K333" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L333" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="334" spans="1:12" x14ac:dyDescent="0.35">
@@ -13679,13 +13679,13 @@
         <v>76</v>
       </c>
       <c r="J334" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K334" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L334" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="335" spans="1:12" x14ac:dyDescent="0.35">
@@ -13717,13 +13717,13 @@
         <v>111</v>
       </c>
       <c r="J335" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K335" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L335" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="336" spans="1:12" x14ac:dyDescent="0.35">
@@ -13755,13 +13755,13 @@
         <v>116</v>
       </c>
       <c r="J336" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K336" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L336" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="337" spans="1:12" x14ac:dyDescent="0.35">
@@ -13793,13 +13793,13 @@
         <v>136</v>
       </c>
       <c r="J337" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K337" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L337" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="338" spans="1:12" x14ac:dyDescent="0.35">
@@ -13831,13 +13831,13 @@
         <v>72</v>
       </c>
       <c r="J338" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K338" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L338" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="339" spans="1:12" x14ac:dyDescent="0.35">
@@ -13869,13 +13869,13 @@
         <v>100</v>
       </c>
       <c r="J339" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K339" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L339" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="340" spans="1:12" x14ac:dyDescent="0.35">
@@ -13907,13 +13907,13 @@
         <v>111</v>
       </c>
       <c r="J340" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K340" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L340" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="341" spans="1:12" x14ac:dyDescent="0.35">
@@ -13945,13 +13945,13 @@
         <v>143</v>
       </c>
       <c r="J341" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K341" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L341" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="342" spans="1:12" x14ac:dyDescent="0.35">
@@ -13983,13 +13983,13 @@
         <v>118</v>
       </c>
       <c r="J342" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K342" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L342" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="343" spans="1:12" x14ac:dyDescent="0.35">
@@ -14021,13 +14021,13 @@
         <v>123</v>
       </c>
       <c r="J343" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K343" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L343" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="344" spans="1:12" x14ac:dyDescent="0.35">
@@ -14059,13 +14059,13 @@
         <v>132</v>
       </c>
       <c r="J344" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K344" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L344" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="345" spans="1:12" x14ac:dyDescent="0.35">
@@ -14097,13 +14097,13 @@
         <v>118</v>
       </c>
       <c r="J345" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K345" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L345" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="L345" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="346" spans="1:12" x14ac:dyDescent="0.35">
@@ -14135,13 +14135,13 @@
         <v>110</v>
       </c>
       <c r="J346" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K346" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L346" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="347" spans="1:12" x14ac:dyDescent="0.35">
@@ -14173,13 +14173,13 @@
         <v>91</v>
       </c>
       <c r="J347" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K347" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L347" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="348" spans="1:12" x14ac:dyDescent="0.35">
@@ -14211,13 +14211,13 @@
         <v>94</v>
       </c>
       <c r="J348" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K348" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L348" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="349" spans="1:12" x14ac:dyDescent="0.35">
@@ -14249,13 +14249,13 @@
         <v>99</v>
       </c>
       <c r="J349" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K349" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L349" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="350" spans="1:12" x14ac:dyDescent="0.35">
@@ -14287,13 +14287,13 @@
         <v>121</v>
       </c>
       <c r="J350" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K350" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L350" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="351" spans="1:12" x14ac:dyDescent="0.35">
@@ -14325,13 +14325,13 @@
         <v>114</v>
       </c>
       <c r="J351" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K351" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L351" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="L351" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="352" spans="1:12" x14ac:dyDescent="0.35">
@@ -14363,13 +14363,13 @@
         <v>124</v>
       </c>
       <c r="J352" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K352" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L352" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="353" spans="1:12" x14ac:dyDescent="0.35">
@@ -14401,13 +14401,13 @@
         <v>114</v>
       </c>
       <c r="J353" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K353" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L353" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="354" spans="1:12" x14ac:dyDescent="0.35">
@@ -14439,13 +14439,13 @@
         <v>143</v>
       </c>
       <c r="J354" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K354" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L354" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="355" spans="1:12" x14ac:dyDescent="0.35">
@@ -14477,13 +14477,13 @@
         <v>89</v>
       </c>
       <c r="J355" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K355" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L355" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="356" spans="1:12" x14ac:dyDescent="0.35">
@@ -14515,13 +14515,13 @@
         <v>59</v>
       </c>
       <c r="J356" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K356" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L356" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="357" spans="1:12" x14ac:dyDescent="0.35">
@@ -14553,13 +14553,13 @@
         <v>86</v>
       </c>
       <c r="J357" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K357" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L357" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="358" spans="1:12" x14ac:dyDescent="0.35">
@@ -14591,13 +14591,13 @@
         <v>125</v>
       </c>
       <c r="J358" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K358" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L358" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="359" spans="1:12" x14ac:dyDescent="0.35">
@@ -14629,13 +14629,13 @@
         <v>114</v>
       </c>
       <c r="J359" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K359" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L359" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="360" spans="1:12" x14ac:dyDescent="0.35">
@@ -14667,13 +14667,13 @@
         <v>123</v>
       </c>
       <c r="J360" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K360" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L360" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="361" spans="1:12" x14ac:dyDescent="0.35">
@@ -14705,13 +14705,13 @@
         <v>112</v>
       </c>
       <c r="J361" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K361" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L361" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="362" spans="1:12" x14ac:dyDescent="0.35">
@@ -14743,13 +14743,13 @@
         <v>93</v>
       </c>
       <c r="J362" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K362" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L362" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="363" spans="1:12" x14ac:dyDescent="0.35">
@@ -14781,13 +14781,13 @@
         <v>107</v>
       </c>
       <c r="J363" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K363" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L363" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="L363" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="364" spans="1:12" x14ac:dyDescent="0.35">
@@ -14819,13 +14819,13 @@
         <v>95</v>
       </c>
       <c r="J364" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K364" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L364" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="365" spans="1:12" x14ac:dyDescent="0.35">
@@ -14857,13 +14857,13 @@
         <v>135</v>
       </c>
       <c r="J365" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K365" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L365" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
